--- a/安全语录（2020年1-2月）.xlsx
+++ b/安全语录（2020年1-2月）.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangni\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A48A769-93E7-40C2-973B-3FF7E2D7B8A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8700" xr2:uid="{4126E83B-3A37-4704-A7F2-A1979162CD29}"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="1-2月  (2020)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
   <si>
     <t>F0000002</t>
   </si>
@@ -70,11 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 安全和效益结伴而行，事故与损失同时发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 无知加大意必危险，防护加警惕保安全。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 生命就像一只蜡烛，你不珍惜它，它就会消灭。</t>
@@ -87,7 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 防事故年年平安福满门，讲安全人人健康乐万家。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 大家自觉提高安全防范，享受社会带来的快乐。</t>
@@ -100,14 +86,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 安全为了生产，生产必须安全。时时注意安全，处处预防事故。 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 劳动创造财富，安全带来幸福。</t>
   </si>
   <si>
     <t xml:space="preserve"> 重视安全，才有平安;轻视安全，就有危险。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 愚者以流血换取教训，智者以教训制止流血。</t>
@@ -126,7 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 安全法规血写成,违章害己害亲人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 事事落到实处,安全有备无患</t>
@@ -157,7 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 事故牵动千万家,安全要靠你我他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 事故是幽灵，时时要清醒；事故是暗箭，安全是盾牌。</t>
@@ -197,10 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 注意安全时刻不能忘。</t>
-  </si>
-  <si>
-    <t>安全施工管理群</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 安全是宝藏，安全是生命，安全是金钱。</t>
@@ -242,39 +220,374 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -282,15 +595,269 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,27 +868,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -370,7 +981,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -403,26 +1014,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -455,23 +1049,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -613,721 +1190,904 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFC8C9C-DE0F-4D41-AAB7-22117BF2076B}">
-  <dimension ref="A1:C62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="$A64:$XFD71 $A72:$XFD79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="121.88671875" style="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.6666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="3" customWidth="1"/>
+    <col min="3" max="3" width="121.888888888889" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.6" hidden="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="15.6" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43831.354166666664</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="3" ht="15.6" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43831.3541666667</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" ht="15.6" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
         <v>43832</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" ht="15.6" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
         <v>43833</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" ht="15.6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
         <v>43834</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" ht="15.6" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
         <v>43835</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" ht="15.6" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
         <v>43836</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" ht="15.6" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
         <v>43837</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" ht="15.6" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
         <v>43838</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11" ht="15.6" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6">
         <v>43839</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" ht="15.6" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
         <v>43840</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" ht="15.6" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6">
         <v>43841</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" ht="15.6" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6">
         <v>43842</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" ht="15.6" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6">
         <v>43843</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" ht="15.6" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6">
         <v>43844</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17" ht="15.6" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6">
         <v>43845</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18" ht="15.6" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6">
         <v>43846</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19" ht="15.6" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6">
         <v>43847</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20" ht="15.6" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="6">
         <v>43848</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21" ht="15.6" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6">
         <v>43849</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="22" ht="15.6" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6">
         <v>43850</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2">
+    <row r="23" ht="15.6" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6">
         <v>43851</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="24" ht="15.6" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="6">
         <v>43852</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="25" ht="15.6" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6">
         <v>43853</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="26" ht="15.6" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="6">
         <v>43854</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="2">
+    <row r="27" ht="15.6" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6">
         <v>43855</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2">
+    <row r="28" ht="15.6" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="6">
         <v>43856</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="2">
+    <row r="29" ht="15.6" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="6">
         <v>43857</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="2">
+    <row r="30" ht="15.6" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6">
         <v>43858</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="2">
+    <row r="31" ht="15.6" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="6">
         <v>43859</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="2">
+    <row r="32" ht="15.6" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6">
         <v>43860</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2">
+    <row r="33" ht="15.6" spans="1:3">
+      <c r="A33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6">
         <v>43861</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="2">
+    <row r="34" ht="15.6" spans="1:3">
+      <c r="A34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="6">
         <v>43862</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="2">
+    <row r="35" ht="15.6" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="6">
         <v>43863</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="2">
+    <row r="36" ht="15.6" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="6">
         <v>43864</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="2">
+    <row r="37" ht="15.6" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="6">
         <v>43865</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="2">
+    <row r="38" ht="15.6" spans="1:3">
+      <c r="A38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="6">
         <v>43866</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="2">
+    <row r="39" ht="15.6" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="6">
         <v>43867</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="2">
+    <row r="40" ht="15.6" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="6">
         <v>43868</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="41" ht="15.6" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="6">
         <v>43869</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="2">
+    <row r="42" ht="15.6" spans="1:3">
+      <c r="A42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="6">
         <v>43870</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="2">
+    <row r="43" ht="15.6" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="6">
         <v>43871</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="2">
+    <row r="44" ht="15.6" spans="1:3">
+      <c r="A44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="6">
         <v>43872</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="2">
+    <row r="45" ht="15.6" spans="1:3">
+      <c r="A45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="6">
         <v>43873</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="2">
+    <row r="46" ht="15.6" spans="1:3">
+      <c r="A46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="6">
         <v>43874</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="2">
+    <row r="47" ht="15.6" spans="1:3">
+      <c r="A47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="6">
         <v>43875</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="2">
+    <row r="48" ht="15.6" spans="1:3">
+      <c r="A48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="6">
         <v>43876</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="2">
+    <row r="49" ht="15.6" spans="1:3">
+      <c r="A49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="6">
         <v>43877</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="2">
+    <row r="50" ht="15.6" spans="1:3">
+      <c r="A50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="6">
         <v>43878</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" ht="15.6" spans="1:3">
+      <c r="A51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="6">
+        <v>43879</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="2">
-        <v>43879</v>
-      </c>
-      <c r="C51" s="3" t="s">
+    </row>
+    <row r="52" ht="15.6" spans="1:3">
+      <c r="A52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="6">
+        <v>43880</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="2">
-        <v>43880</v>
-      </c>
-      <c r="C52" s="3" t="s">
+    <row r="53" ht="15.6" spans="1:3">
+      <c r="A53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="6">
+        <v>43881</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="2">
-        <v>43881</v>
-      </c>
-      <c r="C53" s="3" t="s">
+    <row r="54" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A54" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="9">
+        <v>43882</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="2">
+    <row r="55" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A55" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="9">
+        <v>43883</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="9">
+        <v>43884</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A57" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="9">
+        <v>43885</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A58" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="9">
+        <v>43886</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A59" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="9">
+        <v>43887</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="9">
+        <v>43888</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A61" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="9">
+        <v>43889</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A62" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="9">
+        <v>43890</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="9">
         <v>43882</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C63" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="9">
+        <v>43883</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="2">
+    <row r="65" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A65" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="9">
+        <v>43884</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A66" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="9">
+        <v>43885</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="9">
+        <v>43886</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A68" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="9">
+        <v>43887</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A69" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="9">
+        <v>43888</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A70" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="9">
+        <v>43889</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A71" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="9">
+        <v>43890</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A72" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="9">
         <v>43883</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C72" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="9">
+        <v>43884</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="2">
-        <v>43884</v>
-      </c>
-      <c r="C56" s="3" t="s">
+    <row r="74" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A74" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="9">
+        <v>43885</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="2">
-        <v>43885</v>
-      </c>
-      <c r="C57" s="3" t="s">
+    <row r="75" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A75" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="9">
+        <v>43886</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="2">
-        <v>43886</v>
-      </c>
-      <c r="C58" s="3" t="s">
+    <row r="76" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A76" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="9">
+        <v>43887</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="2">
-        <v>43887</v>
-      </c>
-      <c r="C59" s="3" t="s">
+    <row r="77" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A77" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="9">
+        <v>43888</v>
+      </c>
+      <c r="C77" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C60" s="3" t="s">
+    <row r="78" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A78" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="9">
+        <v>43889</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="2">
-        <v>43889</v>
-      </c>
-      <c r="C61" s="3" t="s">
+    <row r="79" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A79" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="9">
+        <v>43890</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="2">
-        <v>43890</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="输入不合法" error="请从下拉框中选取正确的值" sqref="A3:A199999" xr:uid="{C0B37A27-5F55-44CF-AA00-986D1D4020BC}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="输入不合法" error="请从下拉框中选取正确的值" sqref="A63 A3:A53 A54:A62 A64:A71 A72:A79 A80:A199999">
       <formula1>"安全施工管理群,测试群"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>